--- a/Daily Activity/2024/DEC/Master Documentation Main/Reference/KT Documentation Assiged List.xlsx
+++ b/Daily Activity/2024/DEC/Master Documentation Main/Reference/KT Documentation Assiged List.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Purchase" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sales" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Inventory" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Integrations" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Inventory!$A$1:$G$24</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="304">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -706,17 +707,252 @@
   </si>
   <si>
     <t xml:space="preserve">PHYSICAL INVENTORY GIFT AUTHORIZATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export Marketing Campaign - DMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import &amp; Callout &amp; Export</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export Price - DMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export Product - DMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export Price List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export Scheduled Shipments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORT ACTIVITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santhosh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Activity (Manual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORT BUDGET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Budget (Manual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Budget Product Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORT BUSINESS PARTNER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORT PROPOSAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Proposal (Manual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Proposal Product Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Proposal SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Recommended Shipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praveen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORT SUB ACTIVITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORT SUB BUDGET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Sub Proposal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export SO Detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import DMS Business partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import DMS Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import DMS Order Producess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import DMS Sales Person Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Sales Order - DMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSBC File Encryption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Notification to salesmen about success/failure imported Sos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMS Interface Log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMS PROGRAM MAPPING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORT AND EXPORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export AR Invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export AR Payments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export AR Payments (Aging)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORT ACCOUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORT ACCRUAL FOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Area Territory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORT BANK STATEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Campaign Mapping </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORT COMMERCIAL DISCOUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORT CONSIGNMENT ORDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORT CONTACT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import CTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Currency Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import D.5.6 Zero Revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORT DISCOUNT SCHEMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import GAAP Adjustment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import GL Journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Loader Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORT LOCATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORT NTA PURCHASE ORDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Payment netoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Payment(HSBC) ACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORT STANDARD COST PRICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORT TALLY SHEET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPROT NTA GOODS RECEIPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export Consignment Gift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Credit Limit Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Customer RMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Internal Transfer Invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Payment(HSBC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import CIP Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import FA Register</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -807,7 +1043,31 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="CALIBRI"/>
+      <name val="arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -898,7 +1158,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1027,6 +1287,14 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1035,16 +1303,72 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1174,7 +1498,7 @@
       <selection pane="topLeft" activeCell="D112" activeCellId="0" sqref="D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="30.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.11"/>
@@ -4146,7 +4470,7 @@
       <selection pane="topLeft" activeCell="K35" activeCellId="0" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.71"/>
@@ -5335,222 +5659,222 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="38.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="30.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="33" customFormat="true" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+    <row r="1" s="3" customFormat="true" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="33" t="s">
         <v>71</v>
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="33" t="s">
         <v>71</v>
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="33" t="s">
         <v>71</v>
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="33" t="s">
         <v>71</v>
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="35" t="s">
+      <c r="C6" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="33" t="s">
         <v>71</v>
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="35" t="s">
+      <c r="C7" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="33" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="33" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="35" t="s">
+      <c r="C9" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="33" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="35" t="s">
+      <c r="C10" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="33" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="35" t="s">
+      <c r="C11" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="33" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="4"/>
@@ -5559,16 +5883,16 @@
       <c r="A12" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="35" t="s">
+      <c r="C12" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="33" t="s">
         <v>102</v>
       </c>
       <c r="F12" s="4"/>
@@ -5577,16 +5901,16 @@
       <c r="A13" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="35" t="s">
+      <c r="C13" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="33" t="s">
         <v>102</v>
       </c>
       <c r="F13" s="4"/>
@@ -5595,16 +5919,16 @@
       <c r="A14" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="35" t="s">
+      <c r="C14" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="33" t="s">
         <v>102</v>
       </c>
       <c r="F14" s="4"/>
@@ -5613,16 +5937,16 @@
       <c r="A15" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="35" t="s">
+      <c r="C15" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="33" t="s">
         <v>102</v>
       </c>
       <c r="F15" s="4"/>
@@ -5631,172 +5955,166 @@
       <c r="A16" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="33" t="s">
         <v>102</v>
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="35" t="s">
+      <c r="C17" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="33" t="s">
         <v>153</v>
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="35" t="s">
+      <c r="C18" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="33" t="s">
         <v>153</v>
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="33" t="s">
         <v>153</v>
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="35" t="s">
+      <c r="C20" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="33" t="s">
         <v>153</v>
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="35" t="s">
+      <c r="C21" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="33" t="s">
         <v>42</v>
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="35" t="s">
+      <c r="C22" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="33" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="35" t="s">
+      <c r="C23" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="33" t="s">
         <v>42</v>
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="C24" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="35" t="s">
+      <c r="C24" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="33" t="s">
         <v>42</v>
       </c>
       <c r="F24" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G24">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="SANTHOSH"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G24"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5806,4 +6124,1292 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ71"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.78"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="35" customFormat="true" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="39"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="39"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="F7" s="39"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" s="39"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="F9" s="39"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="F10" s="39"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="39"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" s="39"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="39"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="F14" s="39"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15" s="39"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="F16" s="39"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="39"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" s="39"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="F19" s="39"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="F20" s="39"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="F21" s="39"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="F22" s="39"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="F23" s="39"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="F24" s="39"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="F25" s="39"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="F26" s="39"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="F27" s="39"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="F28" s="39"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="39"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="F30" s="39"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="B33" s="49"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="F34" s="39"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="F35" s="39"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="F36" s="39"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="F37" s="39"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="F38" s="39"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="F39" s="39"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="F40" s="39"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="39"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F42" s="39"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F43" s="39"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F44" s="39"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F45" s="39"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F46" s="39"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F47" s="39"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" s="39"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="F49" s="39"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="F50" s="39"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E51" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="F51" s="39"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="F52" s="39"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E53" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="F53" s="39"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="F54" s="39"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="F55" s="39"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="F56" s="39"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="F57" s="39"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="F58" s="39"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E59" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="F59" s="39"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E60" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="F60" s="39"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="F61" s="39"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B62" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="F62" s="39"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="B63" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E63" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="F63" s="39"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="B64" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E64" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F64" s="39"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="F65" s="39"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E66" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="F66" s="39"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E67" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="F67" s="39"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E68" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="F68" s="39"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E69" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="F69" s="39"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="B70" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="F70" s="39"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="B71" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="F71" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A33:B33"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>